--- a/ExcelData/Data_Table/MapTable.xlsx
+++ b/ExcelData/Data_Table/MapTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0122565-C2D9-4CA2-9A0E-5730084E0616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF28D926-32B2-4408-B1B6-43D1CF522219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="22530" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9480" yWindow="3375" windowWidth="14955" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapTableTable" sheetId="16" r:id="rId1"/>
@@ -80,14 +80,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volcano</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -409,6 +401,14 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>MapTableIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -418,7 +418,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +472,14 @@
       <color rgb="FF000000"/>
       <name val="calibri"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -609,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -678,6 +686,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,15 +912,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="7.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12.875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.125" style="3" bestFit="1" customWidth="1"/>
@@ -947,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -972,28 +983,28 @@
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
       <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="L3" s="20"/>
       <c r="M3" s="2"/>
@@ -1009,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1091,13 +1102,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E6" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F6" s="11">
         <v>1</v>
@@ -1131,13 +1142,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E7" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F7" s="11">
         <v>2</v>
@@ -1171,13 +1182,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E8" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F8" s="11">
         <v>3</v>
@@ -1211,13 +1222,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E9" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F9" s="11">
         <v>4</v>
@@ -1251,13 +1262,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F10" s="11">
         <v>5</v>
@@ -1291,13 +1302,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E11" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F11" s="11">
         <v>6</v>
@@ -1331,13 +1342,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E12" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F12" s="11">
         <v>1</v>
@@ -1371,13 +1382,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E13" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F13" s="11">
         <v>2</v>
@@ -1411,13 +1422,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F14" s="11">
         <v>3</v>
@@ -1451,13 +1462,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E15" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F15" s="11">
         <v>4</v>
@@ -1491,13 +1502,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E16" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F16" s="11">
         <v>5</v>
@@ -1531,13 +1542,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E17" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F17" s="11">
         <v>6</v>
@@ -1571,13 +1582,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E18" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
@@ -1611,13 +1622,13 @@
         <v>14</v>
       </c>
       <c r="C19" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E19" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F19" s="11">
         <v>2</v>
@@ -1651,13 +1662,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E20" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F20" s="11">
         <v>3</v>
@@ -1691,13 +1702,13 @@
         <v>16</v>
       </c>
       <c r="C21" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E21" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F21" s="11">
         <v>4</v>
@@ -1731,13 +1742,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E22" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F22" s="11">
         <v>5</v>
@@ -1771,13 +1782,13 @@
         <v>18</v>
       </c>
       <c r="C23" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E23" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F23" s="11">
         <v>6</v>
@@ -1811,13 +1822,13 @@
         <v>19</v>
       </c>
       <c r="C24" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E24" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F24" s="11">
         <v>1</v>
@@ -1851,13 +1862,13 @@
         <v>20</v>
       </c>
       <c r="C25" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E25" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F25" s="11">
         <v>2</v>
@@ -1891,13 +1902,13 @@
         <v>21</v>
       </c>
       <c r="C26" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E26" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F26" s="11">
         <v>3</v>
@@ -1931,13 +1942,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E27" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F27" s="11">
         <v>4</v>
@@ -1971,13 +1982,13 @@
         <v>23</v>
       </c>
       <c r="C28" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E28" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F28" s="11">
         <v>5</v>
@@ -2011,13 +2022,13 @@
         <v>24</v>
       </c>
       <c r="C29" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E29" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F29" s="11">
         <v>6</v>
@@ -2051,13 +2062,13 @@
         <v>25</v>
       </c>
       <c r="C30" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E30" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F30" s="11">
         <v>1</v>
@@ -2091,13 +2102,13 @@
         <v>26</v>
       </c>
       <c r="C31" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E31" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F31" s="11">
         <v>2</v>
@@ -2131,13 +2142,13 @@
         <v>27</v>
       </c>
       <c r="C32" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E32" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F32" s="11">
         <v>3</v>
@@ -2171,13 +2182,13 @@
         <v>28</v>
       </c>
       <c r="C33" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E33" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F33" s="11">
         <v>4</v>
@@ -2211,13 +2222,13 @@
         <v>29</v>
       </c>
       <c r="C34" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E34" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F34" s="11">
         <v>5</v>
@@ -2251,13 +2262,13 @@
         <v>30</v>
       </c>
       <c r="C35" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>15</v>
+        <v>560001</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="E35" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F35" s="11">
         <v>6</v>

--- a/ExcelData/Data_Table/MapTable.xlsx
+++ b/ExcelData/Data_Table/MapTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF28D926-32B2-4408-B1B6-43D1CF522219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7574A7B5-7653-4C42-95C8-09E5EDB23DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="3375" windowWidth="14955" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21300" yWindow="3285" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapTableTable" sheetId="16" r:id="rId1"/>
@@ -675,6 +675,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -686,9 +689,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -954,10 +954,10 @@
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4"/>
@@ -968,7 +968,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="20" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="2"/>
@@ -980,8 +980,8 @@
     </row>
     <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
@@ -1006,7 +1006,7 @@
       <c r="K3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="20"/>
+      <c r="L3" s="21"/>
       <c r="M3" s="2"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -1104,7 +1104,7 @@
       <c r="C6" s="11">
         <v>560001</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="11">
@@ -1120,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="11">
-        <v>901912</v>
+        <v>962001</v>
       </c>
       <c r="J6" s="11">
         <v>0</v>
@@ -1144,7 +1144,7 @@
       <c r="C7" s="11">
         <v>560001</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="11">
@@ -1160,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="11">
-        <v>901914</v>
+        <v>964001</v>
       </c>
       <c r="J7" s="11">
         <v>0</v>
@@ -1184,7 +1184,7 @@
       <c r="C8" s="11">
         <v>560001</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E8" s="11">
@@ -1224,7 +1224,7 @@
       <c r="C9" s="11">
         <v>560001</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E9" s="11">
@@ -1264,7 +1264,7 @@
       <c r="C10" s="11">
         <v>560001</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="11">
@@ -1280,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="11">
-        <v>901912</v>
+        <v>964001</v>
       </c>
       <c r="J10" s="11">
         <v>0</v>
@@ -1304,7 +1304,7 @@
       <c r="C11" s="11">
         <v>560001</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="11">
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J11" s="11">
         <v>0</v>
@@ -1344,7 +1344,7 @@
       <c r="C12" s="11">
         <v>560001</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="11">
@@ -1360,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J12" s="11">
         <v>0</v>
@@ -1384,7 +1384,7 @@
       <c r="C13" s="11">
         <v>560001</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="11">
@@ -1400,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="I13" s="11">
-        <v>901913</v>
+        <v>963001</v>
       </c>
       <c r="J13" s="11">
-        <v>111001</v>
+        <v>131001</v>
       </c>
       <c r="K13" s="11">
         <v>0</v>
@@ -1424,7 +1424,7 @@
       <c r="C14" s="11">
         <v>560001</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="11">
@@ -1440,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J14" s="11">
         <v>0</v>
@@ -1464,7 +1464,7 @@
       <c r="C15" s="11">
         <v>560001</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="11">
@@ -1480,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J15" s="11">
         <v>0</v>
@@ -1504,7 +1504,7 @@
       <c r="C16" s="11">
         <v>560001</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="11">
@@ -1520,7 +1520,7 @@
         <v>4</v>
       </c>
       <c r="I16" s="11">
-        <v>901914</v>
+        <v>964001</v>
       </c>
       <c r="J16" s="11">
         <v>0</v>
@@ -1544,7 +1544,7 @@
       <c r="C17" s="11">
         <v>560001</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="11">
@@ -1560,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J17" s="11">
         <v>0</v>
@@ -1584,7 +1584,7 @@
       <c r="C18" s="11">
         <v>560001</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E18" s="11">
@@ -1600,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J18" s="11">
         <v>0</v>
@@ -1624,7 +1624,7 @@
       <c r="C19" s="11">
         <v>560001</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E19" s="11">
@@ -1640,7 +1640,7 @@
         <v>4</v>
       </c>
       <c r="I19" s="11">
-        <v>901914</v>
+        <v>964001</v>
       </c>
       <c r="J19" s="11">
         <v>0</v>
@@ -1664,7 +1664,7 @@
       <c r="C20" s="11">
         <v>560001</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E20" s="11">
@@ -1680,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="11">
-        <v>901912</v>
+        <v>962001</v>
       </c>
       <c r="J20" s="11">
         <v>0</v>
@@ -1704,7 +1704,7 @@
       <c r="C21" s="11">
         <v>560001</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="11">
@@ -1720,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J21" s="11">
         <v>0</v>
@@ -1744,7 +1744,7 @@
       <c r="C22" s="11">
         <v>560001</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E22" s="11">
@@ -1760,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="11">
-        <v>901912</v>
+        <v>962001</v>
       </c>
       <c r="J22" s="11">
         <v>0</v>
@@ -1784,7 +1784,7 @@
       <c r="C23" s="11">
         <v>560001</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="11">
@@ -1800,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J23" s="11">
         <v>0</v>
@@ -1824,7 +1824,7 @@
       <c r="C24" s="11">
         <v>560001</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="11">
@@ -1864,7 +1864,7 @@
       <c r="C25" s="11">
         <v>560001</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="11">
@@ -1880,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J25" s="11">
         <v>0</v>
@@ -1904,7 +1904,7 @@
       <c r="C26" s="11">
         <v>560001</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="11">
@@ -1944,7 +1944,7 @@
       <c r="C27" s="11">
         <v>560001</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="11">
@@ -1984,7 +1984,7 @@
       <c r="C28" s="11">
         <v>560001</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="11">
@@ -2000,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J28" s="11">
         <v>0</v>
@@ -2024,7 +2024,7 @@
       <c r="C29" s="11">
         <v>560001</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="11">
@@ -2064,7 +2064,7 @@
       <c r="C30" s="11">
         <v>560001</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="11">
@@ -2080,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="11">
-        <v>901912</v>
+        <v>962001</v>
       </c>
       <c r="J30" s="11">
         <v>0</v>
@@ -2104,7 +2104,7 @@
       <c r="C31" s="11">
         <v>560001</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="11">
@@ -2120,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="I31" s="11">
-        <v>901914</v>
+        <v>964001</v>
       </c>
       <c r="J31" s="11">
         <v>0</v>
@@ -2144,7 +2144,7 @@
       <c r="C32" s="11">
         <v>560001</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E32" s="11">
@@ -2184,7 +2184,7 @@
       <c r="C33" s="11">
         <v>560001</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="11">
@@ -2200,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J33" s="11">
         <v>0</v>
@@ -2224,7 +2224,7 @@
       <c r="C34" s="11">
         <v>560001</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="11">
@@ -2240,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="11">
-        <v>901922</v>
+        <v>962001</v>
       </c>
       <c r="J34" s="11">
         <v>0</v>
@@ -2264,7 +2264,7 @@
       <c r="C35" s="11">
         <v>560001</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="19" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="11">

--- a/ExcelData/Data_Table/MapTable.xlsx
+++ b/ExcelData/Data_Table/MapTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7574A7B5-7653-4C42-95C8-09E5EDB23DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA18D7B-72AC-4EFB-B31B-6CEFF6CF1C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21300" yWindow="3285" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MapTableTable" sheetId="16" r:id="rId1"/>
@@ -72,10 +72,6 @@
   </si>
   <si>
     <t>BuffSummon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -407,6 +403,10 @@
   </si>
   <si>
     <t>Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -983,28 +983,28 @@
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="2"/>
@@ -1020,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1063,28 +1063,28 @@
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="F5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>2</v>
@@ -1105,7 +1105,7 @@
         <v>560001</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="11">
         <v>960001</v>
@@ -1145,7 +1145,7 @@
         <v>560001</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="11">
         <v>960001</v>
@@ -1185,7 +1185,7 @@
         <v>560001</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="11">
         <v>960001</v>
@@ -1225,7 +1225,7 @@
         <v>560001</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="11">
         <v>960001</v>
@@ -1265,7 +1265,7 @@
         <v>560001</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="11">
         <v>960001</v>
@@ -1305,7 +1305,7 @@
         <v>560001</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="11">
         <v>960001</v>
@@ -1345,7 +1345,7 @@
         <v>560001</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="11">
         <v>960001</v>
@@ -1385,7 +1385,7 @@
         <v>560001</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="11">
         <v>960001</v>
@@ -1425,7 +1425,7 @@
         <v>560001</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="11">
         <v>960001</v>
@@ -1465,7 +1465,7 @@
         <v>560001</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="11">
         <v>960001</v>
@@ -1505,7 +1505,7 @@
         <v>560001</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" s="11">
         <v>960001</v>
@@ -1545,7 +1545,7 @@
         <v>560001</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="11">
         <v>960001</v>
@@ -1585,7 +1585,7 @@
         <v>560001</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="11">
         <v>960001</v>
@@ -1625,7 +1625,7 @@
         <v>560001</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19" s="11">
         <v>960001</v>
@@ -1665,7 +1665,7 @@
         <v>560001</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="11">
         <v>960001</v>
@@ -1705,7 +1705,7 @@
         <v>560001</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="11">
         <v>960001</v>
@@ -1745,7 +1745,7 @@
         <v>560001</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E22" s="11">
         <v>960001</v>
@@ -1785,7 +1785,7 @@
         <v>560001</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E23" s="11">
         <v>960001</v>
@@ -1825,7 +1825,7 @@
         <v>560001</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24" s="11">
         <v>960001</v>
@@ -1865,7 +1865,7 @@
         <v>560001</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="11">
         <v>960001</v>
@@ -1905,7 +1905,7 @@
         <v>560001</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="11">
         <v>960001</v>
@@ -1945,7 +1945,7 @@
         <v>560001</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E27" s="11">
         <v>960001</v>
@@ -1985,7 +1985,7 @@
         <v>560001</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E28" s="11">
         <v>960001</v>
@@ -2025,7 +2025,7 @@
         <v>560001</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E29" s="11">
         <v>960001</v>
@@ -2065,7 +2065,7 @@
         <v>560001</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30" s="11">
         <v>960001</v>
@@ -2105,7 +2105,7 @@
         <v>560001</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="11">
         <v>960001</v>
@@ -2145,7 +2145,7 @@
         <v>560001</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E32" s="11">
         <v>960001</v>
@@ -2185,7 +2185,7 @@
         <v>560001</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E33" s="11">
         <v>960001</v>
@@ -2225,7 +2225,7 @@
         <v>560001</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E34" s="11">
         <v>960001</v>
@@ -2265,7 +2265,7 @@
         <v>560001</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35" s="11">
         <v>960001</v>

--- a/ExcelData/Data_Table/MapTable.xlsx
+++ b/ExcelData/Data_Table/MapTable.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA18D7B-72AC-4EFB-B31B-6CEFF6CF1C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D13A6C1-E641-4BE7-BAD3-8A8642744F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MapTableTable" sheetId="16" r:id="rId1"/>
+    <sheet name="MapTable_Table" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MapTableTable!$B$5:$L$105</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MapTableTable!$A$1:$W$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MapTable_Table!$B$5:$L$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MapTable_Table!$A$1:$W$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>

--- a/ExcelData/Data_Table/MapTable.xlsx
+++ b/ExcelData/Data_Table/MapTable.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSources\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA18D7B-72AC-4EFB-B31B-6CEFF6CF1C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9DC737-F782-45A0-B4BA-4A30E1A5E654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MapTableTable" sheetId="16" r:id="rId1"/>
+    <sheet name="Map_Table" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MapTableTable!$B$5:$L$105</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MapTableTable!$A$1:$W$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Map_Table!$B$5:$L$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Map_Table!$A$1:$W$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>

--- a/ExcelData/Data_Table/MapTable.xlsx
+++ b/ExcelData/Data_Table/MapTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSources\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9DC737-F782-45A0-B4BA-4A30E1A5E654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2416C6A-76F3-45A4-9D7F-92E8D3108D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12135" yWindow="2535" windowWidth="14715" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map_Table" sheetId="16" r:id="rId1"/>
@@ -913,7 +913,7 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1277,7 +1277,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10" s="11">
         <v>964001</v>
@@ -1557,10 +1557,10 @@
         <v>2</v>
       </c>
       <c r="H17" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="11">
-        <v>961001</v>
+        <v>0</v>
       </c>
       <c r="J17" s="11">
         <v>0</v>
@@ -1597,10 +1597,10 @@
         <v>3</v>
       </c>
       <c r="H18" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" s="11">
-        <v>961001</v>
+        <v>962001</v>
       </c>
       <c r="J18" s="11">
         <v>0</v>
@@ -1917,10 +1917,10 @@
         <v>4</v>
       </c>
       <c r="H26" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="11">
-        <v>0</v>
+        <v>961001</v>
       </c>
       <c r="J26" s="11">
         <v>0</v>
@@ -1957,16 +1957,16 @@
         <v>4</v>
       </c>
       <c r="H27" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I27" s="11">
-        <v>0</v>
+        <v>964001</v>
       </c>
       <c r="J27" s="11">
         <v>0</v>
       </c>
       <c r="K27" s="11">
-        <v>0</v>
+        <v>301002</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="13"/>
